--- a/pilot_donations/static/Parameters.xlsx
+++ b/pilot_donations/static/Parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frauke/GithubRepoTree/pilot_donations/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E4F41989-0328-0744-901D-351B724DD0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0792BF-77F2-5347-801C-F718FDC504B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,13 @@
     <t>efficiency_A</t>
   </si>
   <si>
-    <t>comparison_pair</t>
+    <t>num_X_A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -535,8 +535,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -891,11 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,7 +905,7 @@
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -923,159 +924,223 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C15" si="0">A2/B2</f>
+        <v>1.5</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>20</v>
       </c>
-      <c r="C2">
-        <f>A2/B2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="D10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="D12">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="D13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3">
-        <f>A3/B3</f>
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <f>A4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f>A5/B5</f>
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <f>A6/B6</f>
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <f>A7/B7</f>
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <f>A8/B8</f>
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <f>A9/B9</f>
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f>A10/B10</f>
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <f>A11/B11</f>
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
+      <c r="D14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2.125</v>
+      </c>
+      <c r="D15">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1">
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
       <sortCondition ref="D1:D11"/>
     </sortState>
